--- a/manual/(1) Manual and Setup/Debug_Environment_Creation.xlsx
+++ b/manual/(1) Manual and Setup/Debug_Environment_Creation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Webcoop\webcoop_other\manual\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Webcoop\webcoop_other\manual\(1) Manual and Setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E17E82A-9580-41D4-ACF7-89D60ED1838B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185D8C8C-988A-4E3C-8311-1CA947693649}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="228">
   <si>
     <t>Requirement</t>
     <phoneticPr fontId="2"/>
@@ -937,21 +937,6 @@
     <t>db_template = template0</t>
   </si>
   <si>
-    <r>
-      <t>addons_path = /usr/lib/python2.7/dist-packages/odoo/addons,/mnt/extra-addons,/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>home/suzuki/git/test_dev/data/webcoop</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>xmlrpc = True</t>
   </si>
   <si>
@@ -1209,12 +1194,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>sudo chown odoo /etc/odoo/odoo.conf</t>
-  </si>
-  <si>
-    <t>sudo chown -R odoo  /mnt/extra-addons</t>
-  </si>
-  <si>
     <t xml:space="preserve">*if error </t>
   </si>
   <si>
@@ -1227,9 +1206,6 @@
     <t>&gt; run again</t>
   </si>
   <si>
-    <t>https://github.com/AllianceWebcoop/extra_addons</t>
-  </si>
-  <si>
     <t>https://github.com/AllianceWebcoop/webcoop_source</t>
   </si>
   <si>
@@ -1240,13 +1216,45 @@
   </si>
   <si>
     <t>Login and Go to apps install the Following apps:</t>
+  </si>
+  <si>
+    <t>sudo chown ubuntu /etc/odoo/odoo.conf</t>
+  </si>
+  <si>
+    <t>sudo chown -R ubuntu  /mnt/extra-addons</t>
+  </si>
+  <si>
+    <t>https://github.com/jeromecueco/extra_addons</t>
+  </si>
+  <si>
+    <t>https://github.com/jeromecueco/webcoop_source.git</t>
+  </si>
+  <si>
+    <t>For Original WEBCOOP Standard do not install "USEMBASSY MODULE"</t>
+  </si>
+  <si>
+    <t>For USEMBASSY install "USEMBASSY MODULE"</t>
+  </si>
+  <si>
+    <r>
+      <t>addons_path = /usr/lib/python2.7/dist-packages/odoo/addons,/mnt/extra-addons,/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>home/git/webcoop_source</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1347,6 +1355,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
@@ -1458,7 +1473,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1520,6 +1535,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4702,15 +4720,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>29309</xdr:colOff>
-      <xdr:row>562</xdr:row>
-      <xdr:rowOff>218531</xdr:rowOff>
+      <xdr:colOff>21981</xdr:colOff>
+      <xdr:row>565</xdr:row>
+      <xdr:rowOff>196550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>290195</xdr:colOff>
-      <xdr:row>580</xdr:row>
-      <xdr:rowOff>183173</xdr:rowOff>
+      <xdr:colOff>282867</xdr:colOff>
+      <xdr:row>583</xdr:row>
+      <xdr:rowOff>161192</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4733,7 +4751,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1245578" y="127868185"/>
+          <a:off x="1238250" y="128527608"/>
           <a:ext cx="7968809" cy="4053065"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5011,7 +5029,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
   <cols>
@@ -5421,13 +5441,13 @@
     </row>
     <row r="115" spans="2:8" ht="18" customHeight="1">
       <c r="C115" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E115" s="20" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H115" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="116" spans="2:8" ht="18" customHeight="1">
@@ -5435,7 +5455,7 @@
         <v>77</v>
       </c>
       <c r="H116" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="117" spans="2:8" ht="18" customHeight="1">
@@ -5490,7 +5510,7 @@
     </row>
     <row r="132" spans="2:3" ht="18" customHeight="1">
       <c r="C132" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="133" spans="2:3" ht="18" customHeight="1">
@@ -5500,7 +5520,7 @@
     </row>
     <row r="134" spans="2:3" ht="18" customHeight="1">
       <c r="C134" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="136" spans="2:3" ht="18" customHeight="1">
@@ -5643,7 +5663,7 @@
     </row>
     <row r="169" spans="1:11" ht="18" customHeight="1">
       <c r="C169" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="18" customHeight="1">
@@ -5653,13 +5673,13 @@
     </row>
     <row r="172" spans="1:11" ht="18" customHeight="1">
       <c r="C172" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="18" customHeight="1">
       <c r="B173" s="1"/>
       <c r="C173" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="174" spans="1:11" ht="18" customHeight="1">
@@ -5717,7 +5737,7 @@
     <row r="184" spans="2:12" ht="18" customHeight="1">
       <c r="B184" s="1"/>
       <c r="E184" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F184" s="7"/>
       <c r="G184" s="7"/>
@@ -5732,7 +5752,7 @@
     <row r="185" spans="2:12" ht="18" customHeight="1">
       <c r="B185" s="1"/>
       <c r="E185" s="9" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F185" s="10"/>
       <c r="G185" s="10"/>
@@ -5967,92 +5987,92 @@
     </row>
     <row r="310" spans="5:5" ht="18" customHeight="1">
       <c r="E310" s="16" t="s">
-        <v>158</v>
+        <v>227</v>
       </c>
     </row>
     <row r="311" spans="5:5" ht="18" customHeight="1">
       <c r="E311" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="312" spans="5:5" ht="18" customHeight="1">
       <c r="E312" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="313" spans="5:5" ht="18" customHeight="1">
       <c r="E313" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="314" spans="5:5" ht="18" customHeight="1">
       <c r="E314" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="315" spans="5:5" ht="18" customHeight="1">
       <c r="E315" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="316" spans="5:5" ht="18" customHeight="1">
       <c r="E316" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="317" spans="5:5" ht="18" customHeight="1">
       <c r="E317" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="318" spans="5:5" ht="18" customHeight="1">
       <c r="E318" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="319" spans="5:5" ht="18" customHeight="1">
       <c r="E319" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="320" spans="5:5" ht="18" customHeight="1">
       <c r="E320" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="321" spans="3:5" ht="18" customHeight="1">
       <c r="E321" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="322" spans="3:5" ht="18" customHeight="1">
       <c r="E322" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="323" spans="3:5" ht="18" customHeight="1">
       <c r="E323" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="324" spans="3:5" ht="18" customHeight="1">
       <c r="E324" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="326" spans="3:5" ht="18" customHeight="1">
       <c r="C326" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="328" spans="3:5" ht="18" customHeight="1">
       <c r="D328" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="330" spans="3:5" ht="18" customHeight="1">
       <c r="D330" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="332" spans="3:5" ht="18" customHeight="1">
@@ -6062,63 +6082,63 @@
     </row>
     <row r="334" spans="3:5" ht="18" customHeight="1">
       <c r="E334" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="335" spans="3:5" ht="18" customHeight="1">
       <c r="E335" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="336" spans="3:5" ht="18" customHeight="1">
       <c r="E336" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="337" spans="2:5" ht="18" customHeight="1">
       <c r="E337" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="338" spans="2:5" ht="18" customHeight="1">
       <c r="E338" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="339" spans="2:5" ht="18" customHeight="1">
       <c r="E339" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="340" spans="2:5" ht="18" customHeight="1">
       <c r="E340" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="342" spans="2:5" ht="18" customHeight="1">
       <c r="B342" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="344" spans="2:5" ht="18" customHeight="1">
       <c r="C344" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="345" spans="2:5" ht="18" customHeight="1">
       <c r="D345" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="346" spans="2:5" ht="18" customHeight="1">
       <c r="D346" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="347" spans="2:5" ht="18" customHeight="1">
       <c r="B347" s="1"/>
       <c r="D347" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="348" spans="2:5" ht="18" customHeight="1">
@@ -6202,7 +6222,7 @@
     <row r="374" spans="2:4" ht="18" customHeight="1">
       <c r="B374" s="1"/>
       <c r="C374" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="375" spans="2:4" ht="18" customHeight="1">
@@ -6211,25 +6231,25 @@
     <row r="376" spans="2:4" ht="18" customHeight="1">
       <c r="B376" s="1"/>
       <c r="D376" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="377" spans="2:4" ht="18" customHeight="1">
       <c r="B377" s="1"/>
       <c r="D377" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="378" spans="2:4" ht="18" customHeight="1">
       <c r="B378" s="1"/>
       <c r="D378" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="379" spans="2:4" ht="18" customHeight="1">
       <c r="B379" s="1"/>
       <c r="D379" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="380" spans="2:4" ht="18" customHeight="1">
@@ -6286,7 +6306,7 @@
     <row r="397" spans="2:4" ht="18" customHeight="1">
       <c r="B397" s="1"/>
       <c r="D397" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="398" spans="2:4" ht="18" customHeight="1">
@@ -6346,25 +6366,25 @@
     <row r="416" spans="2:4" ht="18" customHeight="1">
       <c r="B416" s="1"/>
       <c r="D416" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="417" spans="2:5" ht="18" customHeight="1">
       <c r="B417" s="1"/>
       <c r="E417" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="418" spans="2:5" ht="18" customHeight="1">
       <c r="B418" s="1"/>
       <c r="E418" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="419" spans="2:5" ht="18" customHeight="1">
       <c r="B419" s="1"/>
       <c r="E419" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="420" spans="2:5" ht="18" customHeight="1">
@@ -6384,67 +6404,67 @@
     </row>
     <row r="431" spans="2:5" ht="18" customHeight="1">
       <c r="D431" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="444" spans="4:4" ht="18" customHeight="1">
       <c r="D444" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="462" spans="4:4" ht="18" customHeight="1">
       <c r="D462" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="480" spans="1:1" ht="18" customHeight="1">
       <c r="A480" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="482" spans="2:3" ht="18" customHeight="1">
       <c r="B482" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="484" spans="2:3" ht="18" customHeight="1">
       <c r="C484" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="485" spans="2:3" ht="18" customHeight="1">
       <c r="C485" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="500" spans="2:2" ht="18" customHeight="1">
       <c r="B500" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="513" spans="2:2" ht="18" customHeight="1">
       <c r="B513" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="535" spans="2:2" ht="18" customHeight="1">
       <c r="B535" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="550" spans="4:12" ht="18" customHeight="1">
       <c r="D550" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="552" spans="4:12" ht="18" customHeight="1">
       <c r="D552" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="554" spans="4:12" ht="18" customHeight="1">
       <c r="D554" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E554" s="7"/>
       <c r="F554" s="7"/>
@@ -6457,7 +6477,7 @@
     </row>
     <row r="555" spans="4:12" ht="18" customHeight="1">
       <c r="D555" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E555" s="10"/>
       <c r="F555" s="10"/>
@@ -6470,7 +6490,7 @@
     </row>
     <row r="556" spans="4:12" ht="18" customHeight="1">
       <c r="D556" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E556" s="10"/>
       <c r="F556" s="10"/>
@@ -6483,7 +6503,7 @@
     </row>
     <row r="557" spans="4:12" ht="18" customHeight="1">
       <c r="D557" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E557" s="14"/>
       <c r="F557" s="14"/>
@@ -6494,48 +6514,61 @@
       <c r="K557" s="14"/>
       <c r="L557" s="15"/>
     </row>
-    <row r="562" spans="2:2" ht="18" customHeight="1">
+    <row r="562" spans="2:3" ht="18" customHeight="1">
       <c r="B562" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="564" spans="2:2" ht="18" customHeight="1">
-      <c r="B564" s="1"/>
-    </row>
-    <row r="565" spans="2:2" ht="18" customHeight="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="563" spans="2:3" ht="18" customHeight="1">
+      <c r="B563">
+        <v>1</v>
+      </c>
+      <c r="C563" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="564" spans="2:3" ht="18" customHeight="1">
+      <c r="B564" s="21">
+        <v>2</v>
+      </c>
+      <c r="C564" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="565" spans="2:3" ht="18" customHeight="1">
       <c r="B565" s="1"/>
     </row>
-    <row r="566" spans="2:2" ht="18" customHeight="1">
+    <row r="566" spans="2:3" ht="18" customHeight="1">
       <c r="B566" s="1"/>
     </row>
-    <row r="567" spans="2:2" ht="18" customHeight="1">
+    <row r="567" spans="2:3" ht="18" customHeight="1">
       <c r="B567" s="1"/>
     </row>
-    <row r="568" spans="2:2" ht="18" customHeight="1">
+    <row r="568" spans="2:3" ht="18" customHeight="1">
       <c r="B568" s="1"/>
     </row>
-    <row r="569" spans="2:2" ht="18" customHeight="1">
+    <row r="569" spans="2:3" ht="18" customHeight="1">
       <c r="B569" s="1"/>
     </row>
-    <row r="570" spans="2:2" ht="18" customHeight="1">
+    <row r="570" spans="2:3" ht="18" customHeight="1">
       <c r="B570" s="1"/>
     </row>
-    <row r="571" spans="2:2" ht="18" customHeight="1">
+    <row r="571" spans="2:3" ht="18" customHeight="1">
       <c r="B571" s="1"/>
     </row>
-    <row r="572" spans="2:2" ht="18" customHeight="1">
+    <row r="572" spans="2:3" ht="18" customHeight="1">
       <c r="B572" s="1"/>
     </row>
-    <row r="573" spans="2:2" ht="18" customHeight="1">
+    <row r="573" spans="2:3" ht="18" customHeight="1">
       <c r="B573" s="1"/>
     </row>
-    <row r="574" spans="2:2" ht="18" customHeight="1">
+    <row r="574" spans="2:3" ht="18" customHeight="1">
       <c r="B574" s="1"/>
     </row>
-    <row r="575" spans="2:2" ht="18" customHeight="1">
+    <row r="575" spans="2:3" ht="18" customHeight="1">
       <c r="B575" s="1"/>
     </row>
-    <row r="576" spans="2:2" ht="18" customHeight="1">
+    <row r="576" spans="2:3" ht="18" customHeight="1">
       <c r="B576" s="1"/>
     </row>
   </sheetData>
@@ -6544,9 +6577,10 @@
     <hyperlink ref="D33" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="C169" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="E184" r:id="rId3" xr:uid="{1763BE1E-D8CA-4311-8518-2B570BC840D9}"/>
+    <hyperlink ref="C173" r:id="rId4" xr:uid="{D1E9D93D-1017-45D2-A15F-1969ACC31099}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>